--- a/Quad.xlsx
+++ b/Quad.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,6 +594,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
+        <f>0*PI()/180</f>
         <v>0</v>
       </c>
       <c r="C9" s="5">
@@ -605,6 +606,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
+        <f>0*PI()/180</f>
         <v>0</v>
       </c>
       <c r="C10" s="5">
